--- a/biology/Botanique/Retama_raetam/Retama_raetam.xlsx
+++ b/biology/Botanique/Retama_raetam/Retama_raetam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Retama raetam, parfois appelé genêt blanc, est un arbuste de la famille des Fabaceae, originaire d'Afrique du Nord. C'est une plante adaptée au climat méditerranéen semi-aride, rencontrée des iles Canaries jusqu'à la péninsule Arabique.
 Espèce considérée comme invasive dans certains pays, elle a été introduite en Grèce, en Israël et en Australie.
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1775 par Forsskal  en tant que Genista raetam[1], puis elle a été adoptée sous le nom de Retama raetam par Webb et Berthelot dans une publication datant de 1842. 
-Selon le Conservatoire et Jardin Botaniques de la ville de Genève, cette espèce a plusieurs synonymes dont Lygos raetam (Forssk.) Heywood, Retama raetam var. rigidula (DC) Maire (1987) ou Retama duriaei (Spach) Webb (1843). Il existe deux taxons infra-spécifiques: R. raetam subs. bovei Talavera &amp; Gibbs (1996) et R. raetam subs. raetam (Forssk.) Webb[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1775 par Forsskal  en tant que Genista raetam, puis elle a été adoptée sous le nom de Retama raetam par Webb et Berthelot dans une publication datant de 1842. 
+Selon le Conservatoire et Jardin Botaniques de la ville de Genève, cette espèce a plusieurs synonymes dont Lygos raetam (Forssk.) Heywood, Retama raetam var. rigidula (DC) Maire (1987) ou Retama duriaei (Spach) Webb (1843). Il existe deux taxons infra-spécifiques: R. raetam subs. bovei Talavera &amp; Gibbs (1996) et R. raetam subs. raetam (Forssk.) Webb.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante pérenne non grimpante, poussant sous forme d'arbustes touffus dans les zones humides des régions semi-désertiques à désertiques.Cette plante est considérée comme invasive en Égypte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante pérenne non grimpante, poussant sous forme d'arbustes touffus dans les zones humides des régions semi-désertiques à désertiques.Cette plante est considérée comme invasive en Égypte.
 </t>
         </is>
       </c>
